--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T20:52:23+00:00</t>
+    <t>2022-07-15T14:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T14:52:55+00:00</t>
+    <t>2022-07-17T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T13:46:32+00:00</t>
+    <t>2022-07-17T16:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:09:40+00:00</t>
+    <t>2022-07-17T16:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:31:22+00:00</t>
+    <t>2022-07-17T19:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T19:03:56+00:00</t>
+    <t>2022-08-04T11:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:06:48+00:00</t>
+    <t>2022-08-04T13:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:09:21+00:00</t>
+    <t>2022-08-04T16:22:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T16:22:49+00:00</t>
+    <t>2022-08-04T21:23:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$47</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="332">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:23:28+00:00</t>
+    <t>2022-08-04T21:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -532,6 +535,16 @@
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
+    <t>Slice based on name.use value. One slice with name.use = official must be present.</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>XCN Components</t>
   </si>
   <si>
@@ -539,6 +552,232 @@
   </si>
   <si>
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
+  </si>
+  <si>
+    <t>officialName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.name.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./NamePurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>./FamilyName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>./GivenNames</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>./TitleCode</t>
+  </si>
+  <si>
+    <t>Practitioner.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>Practitioner.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>@default</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -610,9 +849,6 @@
     <t>Needed to address the person correctly.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -700,25 +936,7 @@
     <t>Practitioner.qualification.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Practitioner.qualification.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -779,10 +997,6 @@
   </si>
   <si>
     <t>Practitioner.qualification.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Period during which the qualification is valid</t>
@@ -966,6 +1180,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1134,7 +1363,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1170,7 +1399,7 @@
     <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="78.24609375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1178,7 +1407,7 @@
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="31.08984375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="56.17578125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="55.421875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="52.3828125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
@@ -1303,7 +1532,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>9</v>
       </c>
@@ -1428,7 +1657,7 @@
         <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1523,7 +1752,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>90</v>
       </c>
@@ -1632,7 +1861,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>96</v>
       </c>
@@ -1743,7 +1972,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>102</v>
       </c>
@@ -1854,7 +2083,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>111</v>
       </c>
@@ -1965,7 +2194,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>119</v>
       </c>
@@ -2076,7 +2305,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>127</v>
       </c>
@@ -2187,7 +2416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>135</v>
       </c>
@@ -2300,7 +2529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>140</v>
       </c>
@@ -2411,7 +2640,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>149</v>
       </c>
@@ -2526,7 +2755,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>158</v>
       </c>
@@ -2536,13 +2765,13 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2600,16 +2829,16 @@
         <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>158</v>
@@ -2627,13 +2856,13 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -2641,21 +2870,23 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -2664,19 +2895,19 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>73</v>
@@ -2725,7 +2956,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2740,21 +2971,21 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2765,7 +2996,7 @@
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2774,23 +3005,19 @@
         <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>73</v>
       </c>
@@ -2838,47 +3065,47 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -2887,21 +3114,21 @@
         <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
@@ -2925,52 +3152,52 @@
         <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>73</v>
@@ -2978,7 +3205,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2986,32 +3213,34 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="N17" t="s" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>73</v>
@@ -3021,7 +3250,7 @@
         <v>73</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>73</v>
@@ -3036,13 +3265,13 @@
         <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>73</v>
@@ -3060,7 +3289,7 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3075,21 +3304,21 @@
         <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3100,7 +3329,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3109,20 +3338,22 @@
         <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N18" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -3171,13 +3402,13 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
@@ -3186,13 +3417,13 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>73</v>
@@ -3200,38 +3431,40 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
@@ -3280,13 +3513,13 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
@@ -3295,13 +3528,13 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>73</v>
@@ -3309,38 +3542,40 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>73</v>
@@ -3389,40 +3624,40 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3438,20 +3673,18 @@
         <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>73</v>
@@ -3512,28 +3745,28 @@
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3546,26 +3779,22 @@
         <v>73</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>73</v>
       </c>
@@ -3613,7 +3842,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3625,13 +3854,13 @@
         <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>73</v>
@@ -3640,9 +3869,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3653,7 +3882,7 @@
         <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>73</v>
@@ -3662,20 +3891,20 @@
         <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
@@ -3724,13 +3953,13 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
@@ -3739,13 +3968,13 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>73</v>
@@ -3753,39 +3982,45 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>73</v>
       </c>
@@ -3809,13 +4044,13 @@
         <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>73</v>
@@ -3833,13 +4068,13 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>73</v>
@@ -3848,21 +4083,21 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3885,18 +4120,16 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
@@ -3944,7 +4177,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -3956,35 +4189,35 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>73</v>
@@ -3996,15 +4229,17 @@
         <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>73</v>
@@ -4041,37 +4276,37 @@
         <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>73</v>
@@ -4082,7 +4317,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4090,34 +4325,34 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4142,13 +4377,13 @@
         <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>73</v>
@@ -4166,13 +4401,13 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
@@ -4181,19 +4416,2255 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>73</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM47">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI46">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:39:40+00:00</t>
+    <t>2022-08-04T22:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:05:52+00:00</t>
+    <t>2022-08-04T22:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:26:29+00:00</t>
+    <t>2022-08-04T22:36:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:36:48+00:00</t>
+    <t>2022-08-04T22:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:42:55+00:00</t>
+    <t>2022-08-10T21:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T21:41:07+00:00</t>
+    <t>2022-08-11T05:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T05:51:10+00:00</t>
+    <t>2022-08-11T13:02:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:02:01+00:00</t>
+    <t>2022-08-11T13:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:55:21+00:00</t>
+    <t>2022-08-12T19:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T19:53:56+00:00</t>
+    <t>2022-08-13T11:44:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-practitioner.xlsx
+++ b/StructureDefinition-vp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T11:44:57+00:00</t>
+    <t>2022-08-23T12:16:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
